--- a/box/售价表Excel版.xlsx
+++ b/box/售价表Excel版.xlsx
@@ -142,9 +142,6 @@
     <t>1+1</t>
   </si>
   <si>
-    <t>手撕面包1.8</t>
-  </si>
-  <si>
     <t>盐焗鸡筋2.0</t>
   </si>
   <si>
@@ -172,7 +169,11 @@
     <t>对零食种类、数量有要求的同学可以直接将发邮件给我们，在之后的补货中我们会尽量满足要求。“再来一包”不予兑换</t>
   </si>
   <si>
-    <t>本学期补货基本截止，谢谢支持，下学期再会，祝假期愉快~~</t>
+    <t>手磨豆腐卷3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>本学期补货国庆节开始，谢谢支持，祝生活愉快~~</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -409,7 +410,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -455,6 +456,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -488,9 +492,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -503,7 +504,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -521,8 +522,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -857,95 +861,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15"/>
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A2" s="26"/>
-      <c r="B2" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="18"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="21" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="19"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="22"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="19"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="21"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="23" t="s">
+      <c r="R2" s="22"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="24"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="20" t="s">
+      <c r="U2" s="25"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="24" t="s">
+      <c r="X2" s="22"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="24" t="s">
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="26"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A3" s="26"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
@@ -4030,7 +4034,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4042,17 +4046,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
     </row>
@@ -4214,8 +4218,8 @@
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
-        <v>31</v>
+      <c r="A13" s="38" t="s">
+        <v>40</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -4228,12 +4232,12 @@
     </row>
     <row r="14" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -4243,7 +4247,7 @@
     </row>
     <row r="15" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -4256,7 +4260,7 @@
     </row>
     <row r="16" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -4313,12 +4317,12 @@
     </row>
     <row r="21" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -4328,9 +4332,9 @@
     </row>
     <row r="22" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="31" t="s">
         <v>41</v>
       </c>
       <c r="C22" s="32"/>
@@ -4354,10 +4358,10 @@
     </row>
     <row r="24" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="37" t="s">
         <v>39</v>
-      </c>
-      <c r="B24" s="31" t="s">
-        <v>40</v>
       </c>
       <c r="C24" s="32"/>
       <c r="D24" s="32"/>
@@ -4389,6 +4393,6 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>